--- a/diff_pairs.xlsx
+++ b/diff_pairs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koer2434/Google Drive/UST/research/covg/pcb_design/kicad/covg_daq_v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BED553E1-C6AA-2B4F-A476-BD246F42701B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A487F2C0-D87C-5845-B805-84DD87C6AA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="1460" windowWidth="36720" windowHeight="17440" xr2:uid="{AA396C15-F7F2-D34A-A418-C340D8E136CF}"/>
+    <workbookView xWindow="2400" yWindow="840" windowWidth="33600" windowHeight="17440" xr2:uid="{AA396C15-F7F2-D34A-A418-C340D8E136CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>ADC Chan#</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Kicad length</t>
   </si>
   <si>
-    <t>OpalKelly length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clk to D </t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -94,6 +88,69 @@
   </si>
   <si>
     <t>Total [mm]</t>
+  </si>
+  <si>
+    <t>A0_DCO_P</t>
+  </si>
+  <si>
+    <t>MC1-32</t>
+  </si>
+  <si>
+    <t>MC1-34</t>
+  </si>
+  <si>
+    <t>A0_DCO_N</t>
+  </si>
+  <si>
+    <t>A0_CNV_P</t>
+  </si>
+  <si>
+    <t>A0_CNV_N</t>
+  </si>
+  <si>
+    <t>A0_D_P</t>
+  </si>
+  <si>
+    <t>A0_D_N</t>
+  </si>
+  <si>
+    <t>A0_CLK_P</t>
+  </si>
+  <si>
+    <t>A0_CLK_N</t>
+  </si>
+  <si>
+    <t>MC1-41</t>
+  </si>
+  <si>
+    <t>MC1-43</t>
+  </si>
+  <si>
+    <t>MC1-45</t>
+  </si>
+  <si>
+    <t>MC1-47</t>
+  </si>
+  <si>
+    <t>MC1-49</t>
+  </si>
+  <si>
+    <t>MC1-51</t>
+  </si>
+  <si>
+    <t>OpalKelly length [mm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not OK! </t>
+  </si>
+  <si>
+    <t>Er Eff</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCO to D </t>
   </si>
 </sst>
 </file>
@@ -445,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7BD139-7D80-AC49-8287-78947FA3DDC8}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A14"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,123 +527,304 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
       <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
         <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
-        <v>6</v>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>42.405999999999999</v>
+      </c>
+      <c r="E2">
+        <v>27.92</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F8" si="0">SUM(D2:E2)</f>
+        <v>70.325999999999993</v>
+      </c>
+      <c r="G2">
+        <f>F2*0.001/$L$16*1000000000000</f>
+        <v>377.99089227122926</v>
+      </c>
+      <c r="H2">
+        <f>G2-G3</f>
+        <v>15.243041982783154</v>
       </c>
       <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
         <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
-        <v>7</v>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>42.283999999999999</v>
+      </c>
+      <c r="E3">
+        <v>25.206</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>67.489999999999995</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="1">F3*0.001/$L$16*1000000000000</f>
+        <v>362.7478502884461</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
-        <v>8</v>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>28.233000000000001</v>
+      </c>
+      <c r="E4">
+        <v>26.716000000000001</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>54.948999999999998</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>295.34200067417135</v>
+      </c>
+      <c r="H4">
+        <f>G4-G5</f>
+        <v>-94.645531126526237</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>46.359000000000002</v>
+      </c>
+      <c r="E5">
+        <v>26.199000000000002</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>72.558000000000007</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>389.98753180069758</v>
+      </c>
       <c r="J5" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
-        <v>10</v>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>28.13</v>
+      </c>
+      <c r="E6">
+        <v>20.655000000000001</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>48.784999999999997</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>262.21149616716315</v>
+      </c>
+      <c r="H6">
+        <f>G6-G7</f>
+        <v>5.5038346228384398</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>28.311</v>
+      </c>
+      <c r="E7">
+        <v>19.45</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>47.760999999999996</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>256.70766154432471</v>
+      </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>37.027000000000001</v>
+      </c>
+      <c r="E8">
+        <v>22.529</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>59.555999999999997</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>320.10388163844561</v>
+      </c>
+      <c r="H8">
+        <f>G8-G9</f>
+        <v>38.311848819914701</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>0</v>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>31.045999999999999</v>
+      </c>
+      <c r="E9">
+        <v>21.382000000000001</v>
+      </c>
+      <c r="F9">
+        <f>SUM(D9:E9)</f>
+        <v>52.427999999999997</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>281.79203281853091</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <v>2.6</v>
+      </c>
+      <c r="L16">
+        <f>300000000/SQRT(K16)</f>
+        <v>186052101.88381267</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
